--- a/static/xlsx/2 - копия.xlsx
+++ b/static/xlsx/2 - копия.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Мои документы\Клех\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\denekra\youdo\2019-01-26_visa_django\visa_app\static\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2149F4C4-381D-46CB-A90D-F488FADC7CAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$R$75</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -192,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -628,106 +627,73 @@
       <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -736,53 +702,86 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,7 +820,7 @@
         <xdr:cNvPr id="1104" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,7 +872,7 @@
         <xdr:cNvPr id="1105" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -925,7 +924,7 @@
         <xdr:cNvPr id="1106" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,7 +976,7 @@
         <xdr:cNvPr id="1107" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,7 +1028,7 @@
         <xdr:cNvPr id="1108" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1081,7 +1080,7 @@
         <xdr:cNvPr id="1109" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,7 +1132,7 @@
         <xdr:cNvPr id="1110" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1184,7 @@
         <xdr:cNvPr id="1111" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,23 +1297,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1350,23 +1332,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1542,10 +1507,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -1587,13 +1552,13 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="113" t="s">
+      <c r="N1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="111"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="79"/>
       <c r="S1" s="6"/>
       <c r="T1" s="7"/>
     </row>
@@ -1622,30 +1587,30 @@
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="114" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="112" t="s">
+      <c r="L3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="114" t="str">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="89" t="str">
         <f>REPT(F3,1)</f>
         <v>130319 -               USA 04/05</v>
       </c>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
       <c r="R3" s="10" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1656,25 +1621,25 @@
     <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="112" t="str">
+      <c r="L4" s="87" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="12"/>
       <c r="S4" s="9"/>
@@ -1704,10 +1669,10 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="115"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
       <c r="F6" s="58"/>
@@ -1715,11 +1680,11 @@
       <c r="H6" s="59"/>
       <c r="I6" s="60"/>
       <c r="J6" s="61"/>
-      <c r="K6" s="116" t="str">
+      <c r="K6" s="91" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="116"/>
+      <c r="L6" s="91"/>
       <c r="M6" s="66">
         <f>D6</f>
         <v>0</v>
@@ -1755,29 +1720,29 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="105" t="s">
+      <c r="C8" s="81"/>
+      <c r="D8" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="84" t="s">
+      <c r="K8" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="84"/>
-      <c r="M8" s="105" t="str">
+      <c r="L8" s="81"/>
+      <c r="M8" s="80" t="str">
         <f>REPT(D8,1)</f>
         <v>ОДНОКРАТНАЯ</v>
       </c>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="9"/>
@@ -1808,29 +1773,29 @@
     </row>
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="105" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="84"/>
-      <c r="M10" s="105" t="str">
+      <c r="L10" s="81"/>
+      <c r="M10" s="80" t="str">
         <f>REPT(D10,1)</f>
         <v>США</v>
       </c>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="9"/>
@@ -1864,36 +1829,36 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="109"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="109"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="15"/>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="105" t="str">
+      <c r="L12" s="80" t="str">
         <f>REPT(C12,1)</f>
         <v>04/05/2019</v>
       </c>
-      <c r="M12" s="105"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="105" t="str">
+      <c r="O12" s="80" t="str">
         <f>REPT(F12,1)</f>
         <v>16/05/2019</v>
       </c>
-      <c r="P12" s="105"/>
+      <c r="P12" s="80"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1923,14 +1888,14 @@
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="110" t="s">
+      <c r="C14" s="79"/>
+      <c r="D14" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="111"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="16" t="s">
         <v>16</v>
       </c>
@@ -1942,14 +1907,14 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="110" t="s">
+      <c r="K14" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="111"/>
-      <c r="M14" s="110" t="s">
+      <c r="L14" s="79"/>
+      <c r="M14" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="111"/>
+      <c r="N14" s="79"/>
       <c r="O14" s="16" t="s">
         <v>16</v>
       </c>
@@ -1965,10 +1930,10 @@
     </row>
     <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1978,10 +1943,10 @@
       <c r="H15" s="17"/>
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="118"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="77"/>
       <c r="O15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1995,19 +1960,19 @@
     </row>
     <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="122"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -2017,67 +1982,67 @@
     </row>
     <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="120" t="s">
+      <c r="K17" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
@@ -2109,10 +2074,10 @@
     </row>
     <row r="21" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="107"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="55" t="s">
         <v>39</v>
       </c>
@@ -2122,10 +2087,10 @@
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="107" t="s">
+      <c r="K21" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="107"/>
+      <c r="L21" s="94"/>
       <c r="M21" s="55" t="s">
         <v>39</v>
       </c>
@@ -2161,31 +2126,31 @@
     </row>
     <row r="23" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="83" t="s">
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="84" t="s">
+      <c r="K23" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="83" t="str">
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="92" t="str">
         <f>REPT(F23,1)</f>
         <v>Санкт-Петербург, Москва</v>
       </c>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="7"/>
@@ -2214,56 +2179,56 @@
     </row>
     <row r="25" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="82" t="s">
+      <c r="C25" s="95"/>
+      <c r="D25" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="108" t="s">
+      <c r="K25" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="108"/>
-      <c r="M25" s="82" t="str">
+      <c r="L25" s="95"/>
+      <c r="M25" s="93" t="str">
         <f>REPT(D25,1)</f>
         <v>на борту теплохода "ХЕЛЬГИ" (Viking Helgi)</v>
       </c>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="84" t="s">
+      <c r="K26" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
@@ -2271,26 +2236,26 @@
     </row>
     <row r="27" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="83" t="str">
+      <c r="K27" s="92" t="str">
         <f>REPT(B27,1)</f>
         <v>Туристическая компания "МИР", 190000, Россия,</v>
       </c>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
@@ -2298,26 +2263,26 @@
     </row>
     <row r="28" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="83" t="str">
+      <c r="K28" s="92" t="str">
         <f>REPT(B28,1)</f>
         <v>Санкт-Петербург, улица Большая Морская 31</v>
       </c>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
@@ -2377,166 +2342,166 @@
     </row>
     <row r="31" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85" t="s">
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="9"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="84" t="s">
+      <c r="K31" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="85" t="str">
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="125" t="str">
         <f>REPT(E31,1)</f>
         <v>Вышеуказанному туристу</v>
       </c>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
       <c r="I32" s="9"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="83" t="str">
+      <c r="K32" s="92" t="str">
         <f>REPT(B32,1)</f>
         <v>предоставляется  размещение и питание  на борту теплохода</v>
       </c>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="9"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="83" t="str">
+      <c r="K33" s="92" t="str">
         <f>REPT(B33,1)</f>
         <v xml:space="preserve">"ХЕЛЬГИ", трансферы и экскурсионное обслуживание в городе  </v>
       </c>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
       <c r="I34" s="9"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="83" t="str">
+      <c r="K34" s="92" t="str">
         <f>REPT(B34,1)</f>
         <v>Москва, Санкт-Петербург</v>
       </c>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="92"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="9"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="83" t="str">
+      <c r="K35" s="92" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
       <c r="I36" s="9"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="83" t="str">
+      <c r="K36" s="92" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="7"/>
@@ -2595,12 +2560,12 @@
       <c r="C39" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="84" t="s">
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="84"/>
+      <c r="G39" s="81"/>
       <c r="H39" s="7" t="s">
         <v>33</v>
       </c>
@@ -2610,13 +2575,13 @@
       <c r="L39" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="86"/>
-      <c r="N39" s="86"/>
-      <c r="O39" s="87" t="str">
+      <c r="M39" s="126"/>
+      <c r="N39" s="126"/>
+      <c r="O39" s="127" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="87"/>
+      <c r="P39" s="127"/>
       <c r="Q39" s="7" t="s">
         <v>33</v>
       </c>
@@ -2656,11 +2621,11 @@
       <c r="C41" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="90">
+      <c r="D41" s="118">
         <f ca="1">TODAY()</f>
-        <v>43517</v>
-      </c>
-      <c r="E41" s="91"/>
+        <v>43523</v>
+      </c>
+      <c r="E41" s="119"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2670,11 +2635,11 @@
       <c r="L41" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M41" s="90">
+      <c r="M41" s="118">
         <f ca="1">TODAY()</f>
-        <v>43517</v>
-      </c>
-      <c r="N41" s="91"/>
+        <v>43523</v>
+      </c>
+      <c r="N41" s="119"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -2770,10 +2735,10 @@
       <c r="M45" s="30"/>
       <c r="N45" s="30"/>
       <c r="O45" s="30"/>
-      <c r="P45" s="100" t="s">
+      <c r="P45" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="Q45" s="101"/>
+      <c r="Q45" s="106"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2794,56 +2759,56 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="99" t="s">
+      <c r="P46" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" s="102"/>
+      <c r="Q46" s="108"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="94" t="str">
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="124" t="str">
         <f>REPT(F3,1)</f>
         <v>130319 -               USA 04/05</v>
       </c>
-      <c r="H47" s="94"/>
+      <c r="H47" s="124"/>
       <c r="I47" s="24"/>
       <c r="J47" s="23"/>
-      <c r="K47" s="92" t="s">
+      <c r="K47" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="L47" s="93"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="103" t="str">
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="111" t="str">
         <f>REPT(O3,1)</f>
         <v>130319 -               USA 04/05</v>
       </c>
-      <c r="Q47" s="104"/>
+      <c r="Q47" s="112"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="88" t="s">
+      <c r="C48" s="98"/>
+      <c r="D48" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="89"/>
+      <c r="E48" s="104"/>
       <c r="F48" s="32" t="s">
         <v>16</v>
       </c>
@@ -2855,14 +2820,14 @@
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="23"/>
-      <c r="K48" s="72" t="s">
+      <c r="K48" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="73"/>
-      <c r="M48" s="88" t="s">
+      <c r="L48" s="98"/>
+      <c r="M48" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="89"/>
+      <c r="N48" s="104"/>
       <c r="O48" s="32" t="s">
         <v>16</v>
       </c>
@@ -2878,10 +2843,10 @@
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="73"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="98"/>
       <c r="F49" s="34" t="s">
         <v>19</v>
       </c>
@@ -2891,10 +2856,10 @@
       <c r="H49" s="37"/>
       <c r="I49" s="24"/>
       <c r="J49" s="23"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="73"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="97"/>
+      <c r="N49" s="98"/>
       <c r="O49" s="34" t="s">
         <v>19</v>
       </c>
@@ -2908,36 +2873,36 @@
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="76" t="s">
+      <c r="B50" s="70"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="76"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="80"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="113"/>
       <c r="J50" s="38"/>
-      <c r="K50" s="68" t="str">
+      <c r="K50" s="70" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="123"/>
-      <c r="M50" s="68" t="str">
+      <c r="L50" s="74"/>
+      <c r="M50" s="70" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="69"/>
-      <c r="O50" s="76" t="str">
-        <f t="shared" ref="O50:O69" si="0">REPT(F50,1)</f>
+      <c r="N50" s="71"/>
+      <c r="O50" s="99" t="str">
+        <f t="shared" ref="O50:O52" si="0">REPT(F50,1)</f>
         <v>07/03/1977</v>
       </c>
-      <c r="P50" s="76" t="str">
+      <c r="P50" s="99" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="74" t="str">
+      <c r="Q50" s="101" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2947,62 +2912,62 @@
     </row>
     <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="81"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="114"/>
       <c r="J51" s="38"/>
-      <c r="K51" s="124" t="str">
+      <c r="K51" s="72" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="126"/>
-      <c r="M51" s="70" t="str">
+      <c r="L51" s="73"/>
+      <c r="M51" s="68" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="71"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="77"/>
-      <c r="Q51" s="75"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="102"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="80"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="113"/>
       <c r="J52" s="38"/>
-      <c r="K52" s="68" t="str">
+      <c r="K52" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="69"/>
-      <c r="M52" s="68" t="str">
+      <c r="L52" s="71"/>
+      <c r="M52" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="69"/>
-      <c r="O52" s="76" t="str">
+      <c r="N52" s="71"/>
+      <c r="O52" s="99" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="76" t="str">
+      <c r="P52" s="99" t="str">
         <f t="shared" ref="P52" si="3">REPT(G52,1)</f>
         <v/>
       </c>
-      <c r="Q52" s="74" t="str">
+      <c r="Q52" s="101" t="str">
         <f t="shared" ref="Q52" si="4">REPT(H52,1)</f>
         <v/>
       </c>
@@ -3012,62 +2977,62 @@
     </row>
     <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="81"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="114"/>
       <c r="J53" s="38"/>
-      <c r="K53" s="70" t="str">
+      <c r="K53" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="71"/>
-      <c r="M53" s="70" t="str">
+      <c r="L53" s="69"/>
+      <c r="M53" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="71"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="77"/>
-      <c r="Q53" s="75"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="102"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="80"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="113"/>
       <c r="J54" s="38"/>
-      <c r="K54" s="68" t="str">
+      <c r="K54" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="69"/>
-      <c r="M54" s="68" t="str">
+      <c r="L54" s="71"/>
+      <c r="M54" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="69"/>
-      <c r="O54" s="76" t="str">
-        <f t="shared" ref="O54:O69" si="5">REPT(F54,1)</f>
-        <v/>
-      </c>
-      <c r="P54" s="76" t="str">
+      <c r="N54" s="71"/>
+      <c r="O54" s="99" t="str">
+        <f t="shared" ref="O54" si="5">REPT(F54,1)</f>
+        <v/>
+      </c>
+      <c r="P54" s="99" t="str">
         <f t="shared" ref="P54" si="6">REPT(G54,1)</f>
         <v/>
       </c>
-      <c r="Q54" s="74" t="str">
+      <c r="Q54" s="101" t="str">
         <f t="shared" ref="Q54" si="7">REPT(H54,1)</f>
         <v/>
       </c>
@@ -3077,62 +3042,62 @@
     </row>
     <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="81"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="114"/>
       <c r="J55" s="38"/>
-      <c r="K55" s="70" t="str">
+      <c r="K55" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="71"/>
-      <c r="M55" s="124" t="str">
+      <c r="L55" s="69"/>
+      <c r="M55" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="125"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="77"/>
-      <c r="Q55" s="75"/>
+      <c r="N55" s="75"/>
+      <c r="O55" s="100"/>
+      <c r="P55" s="100"/>
+      <c r="Q55" s="102"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="80"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="113"/>
       <c r="J56" s="38"/>
-      <c r="K56" s="68" t="str">
+      <c r="K56" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="123"/>
-      <c r="M56" s="68" t="str">
+      <c r="L56" s="74"/>
+      <c r="M56" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="69"/>
-      <c r="O56" s="76" t="str">
-        <f t="shared" ref="O56:O69" si="8">REPT(F56,1)</f>
-        <v/>
-      </c>
-      <c r="P56" s="76" t="str">
+      <c r="N56" s="71"/>
+      <c r="O56" s="99" t="str">
+        <f t="shared" ref="O56" si="8">REPT(F56,1)</f>
+        <v/>
+      </c>
+      <c r="P56" s="99" t="str">
         <f t="shared" ref="P56" si="9">REPT(G56,1)</f>
         <v/>
       </c>
-      <c r="Q56" s="74" t="str">
+      <c r="Q56" s="101" t="str">
         <f t="shared" ref="Q56" si="10">REPT(H56,1)</f>
         <v/>
       </c>
@@ -3142,28 +3107,28 @@
     </row>
     <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="81"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="114"/>
       <c r="J57" s="38"/>
-      <c r="K57" s="124" t="str">
+      <c r="K57" s="72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="126"/>
-      <c r="M57" s="70" t="str">
+      <c r="L57" s="73"/>
+      <c r="M57" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="71"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="77"/>
-      <c r="Q57" s="75"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="100"/>
+      <c r="P57" s="100"/>
+      <c r="Q57" s="102"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -3172,34 +3137,34 @@
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="80"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="113"/>
       <c r="J58" s="38"/>
-      <c r="K58" s="68" t="str">
+      <c r="K58" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="69"/>
-      <c r="M58" s="68" t="str">
+      <c r="L58" s="71"/>
+      <c r="M58" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="69"/>
-      <c r="O58" s="76" t="str">
-        <f t="shared" ref="O58:O69" si="11">REPT(F58,1)</f>
-        <v/>
-      </c>
-      <c r="P58" s="76" t="str">
+      <c r="N58" s="71"/>
+      <c r="O58" s="99" t="str">
+        <f t="shared" ref="O58" si="11">REPT(F58,1)</f>
+        <v/>
+      </c>
+      <c r="P58" s="99" t="str">
         <f t="shared" ref="P58" si="12">REPT(G58,1)</f>
         <v/>
       </c>
-      <c r="Q58" s="74" t="str">
+      <c r="Q58" s="101" t="str">
         <f t="shared" ref="Q58" si="13">REPT(H58,1)</f>
         <v/>
       </c>
@@ -3211,62 +3176,62 @@
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="81"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="114"/>
       <c r="J59" s="38"/>
-      <c r="K59" s="70" t="str">
+      <c r="K59" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="71"/>
-      <c r="M59" s="70" t="str">
+      <c r="L59" s="69"/>
+      <c r="M59" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="71"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="77"/>
-      <c r="Q59" s="75"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="102"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="80"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="115"/>
+      <c r="I60" s="113"/>
       <c r="J60" s="38"/>
-      <c r="K60" s="68" t="str">
+      <c r="K60" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="69"/>
-      <c r="M60" s="68" t="str">
+      <c r="L60" s="71"/>
+      <c r="M60" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="69"/>
-      <c r="O60" s="76" t="str">
-        <f t="shared" ref="O60:O69" si="14">REPT(F60,1)</f>
-        <v/>
-      </c>
-      <c r="P60" s="76" t="str">
+      <c r="N60" s="71"/>
+      <c r="O60" s="99" t="str">
+        <f t="shared" ref="O60" si="14">REPT(F60,1)</f>
+        <v/>
+      </c>
+      <c r="P60" s="99" t="str">
         <f t="shared" ref="P60" si="15">REPT(G60,1)</f>
         <v/>
       </c>
-      <c r="Q60" s="74" t="str">
+      <c r="Q60" s="101" t="str">
         <f t="shared" ref="Q60" si="16">REPT(H60,1)</f>
         <v/>
       </c>
@@ -3276,62 +3241,62 @@
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="81"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="114"/>
       <c r="J61" s="38"/>
-      <c r="K61" s="70" t="str">
+      <c r="K61" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="71"/>
-      <c r="M61" s="70" t="str">
+      <c r="L61" s="69"/>
+      <c r="M61" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="71"/>
-      <c r="O61" s="77"/>
-      <c r="P61" s="77"/>
-      <c r="Q61" s="75"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="100"/>
+      <c r="P61" s="100"/>
+      <c r="Q61" s="102"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="80"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="115"/>
+      <c r="I62" s="113"/>
       <c r="J62" s="38"/>
-      <c r="K62" s="68" t="str">
+      <c r="K62" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="69"/>
-      <c r="M62" s="68" t="str">
+      <c r="L62" s="71"/>
+      <c r="M62" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="69"/>
-      <c r="O62" s="76" t="str">
-        <f t="shared" ref="O62:O69" si="17">REPT(F62,1)</f>
-        <v/>
-      </c>
-      <c r="P62" s="76" t="str">
+      <c r="N62" s="71"/>
+      <c r="O62" s="99" t="str">
+        <f t="shared" ref="O62" si="17">REPT(F62,1)</f>
+        <v/>
+      </c>
+      <c r="P62" s="99" t="str">
         <f t="shared" ref="P62" si="18">REPT(G62,1)</f>
         <v/>
       </c>
-      <c r="Q62" s="74" t="str">
+      <c r="Q62" s="101" t="str">
         <f t="shared" ref="Q62" si="19">REPT(H62,1)</f>
         <v/>
       </c>
@@ -3341,62 +3306,62 @@
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="81"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="114"/>
       <c r="J63" s="38"/>
-      <c r="K63" s="124" t="str">
+      <c r="K63" s="72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="125"/>
-      <c r="M63" s="124" t="str">
+      <c r="L63" s="75"/>
+      <c r="M63" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="125"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="77"/>
-      <c r="Q63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="100"/>
+      <c r="P63" s="100"/>
+      <c r="Q63" s="102"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="80"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="115"/>
+      <c r="I64" s="113"/>
       <c r="J64" s="38"/>
-      <c r="K64" s="68" t="str">
+      <c r="K64" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="69"/>
-      <c r="M64" s="68" t="str">
+      <c r="L64" s="71"/>
+      <c r="M64" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="69"/>
-      <c r="O64" s="76" t="str">
-        <f t="shared" ref="O64:O69" si="20">REPT(F64,1)</f>
-        <v/>
-      </c>
-      <c r="P64" s="76" t="str">
+      <c r="N64" s="71"/>
+      <c r="O64" s="99" t="str">
+        <f t="shared" ref="O64" si="20">REPT(F64,1)</f>
+        <v/>
+      </c>
+      <c r="P64" s="99" t="str">
         <f t="shared" ref="P64" si="21">REPT(G64,1)</f>
         <v/>
       </c>
-      <c r="Q64" s="74" t="str">
+      <c r="Q64" s="101" t="str">
         <f t="shared" ref="Q64" si="22">REPT(H64,1)</f>
         <v/>
       </c>
@@ -3406,28 +3371,28 @@
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="81"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="100"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="114"/>
       <c r="J65" s="38"/>
-      <c r="K65" s="70" t="str">
+      <c r="K65" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="71"/>
-      <c r="M65" s="70" t="str">
+      <c r="L65" s="69"/>
+      <c r="M65" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="71"/>
-      <c r="O65" s="77"/>
-      <c r="P65" s="77"/>
-      <c r="Q65" s="75"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="100"/>
+      <c r="P65" s="100"/>
+      <c r="Q65" s="102"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -3436,34 +3401,34 @@
       <c r="A66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="68"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="80"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="115"/>
+      <c r="I66" s="113"/>
       <c r="J66" s="38"/>
-      <c r="K66" s="68" t="str">
+      <c r="K66" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="69"/>
-      <c r="M66" s="68" t="str">
+      <c r="L66" s="71"/>
+      <c r="M66" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="69"/>
-      <c r="O66" s="76" t="str">
-        <f t="shared" ref="O66:O69" si="23">REPT(F66,1)</f>
-        <v/>
-      </c>
-      <c r="P66" s="76" t="str">
+      <c r="N66" s="71"/>
+      <c r="O66" s="99" t="str">
+        <f t="shared" ref="O66" si="23">REPT(F66,1)</f>
+        <v/>
+      </c>
+      <c r="P66" s="99" t="str">
         <f t="shared" ref="P66" si="24">REPT(G66,1)</f>
         <v/>
       </c>
-      <c r="Q66" s="74" t="str">
+      <c r="Q66" s="101" t="str">
         <f t="shared" ref="Q66" si="25">REPT(H66,1)</f>
         <v/>
       </c>
@@ -3475,62 +3440,62 @@
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="70"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="81"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="116"/>
+      <c r="I67" s="114"/>
       <c r="J67" s="38"/>
-      <c r="K67" s="70" t="str">
+      <c r="K67" s="68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="71"/>
-      <c r="M67" s="70" t="str">
+      <c r="L67" s="69"/>
+      <c r="M67" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="71"/>
-      <c r="O67" s="77"/>
-      <c r="P67" s="77"/>
-      <c r="Q67" s="75"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="100"/>
+      <c r="P67" s="100"/>
+      <c r="Q67" s="102"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="80"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="115"/>
+      <c r="I68" s="113"/>
       <c r="J68" s="38"/>
-      <c r="K68" s="68" t="str">
+      <c r="K68" s="70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="69"/>
-      <c r="M68" s="68" t="str">
+      <c r="L68" s="71"/>
+      <c r="M68" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="69"/>
-      <c r="O68" s="76" t="str">
-        <f t="shared" ref="O68:O69" si="26">REPT(F68,1)</f>
-        <v/>
-      </c>
-      <c r="P68" s="76" t="str">
+      <c r="N68" s="71"/>
+      <c r="O68" s="99" t="str">
+        <f t="shared" ref="O68" si="26">REPT(F68,1)</f>
+        <v/>
+      </c>
+      <c r="P68" s="99" t="str">
         <f t="shared" ref="P68" si="27">REPT(G68,1)</f>
         <v/>
       </c>
-      <c r="Q68" s="74" t="str">
+      <c r="Q68" s="101" t="str">
         <f t="shared" ref="Q68" si="28">REPT(H68,1)</f>
         <v/>
       </c>
@@ -3540,44 +3505,44 @@
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="81"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="116"/>
+      <c r="I69" s="114"/>
       <c r="J69" s="38"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="71"/>
-      <c r="M69" s="70" t="str">
+      <c r="K69" s="68"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="71"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="77"/>
-      <c r="Q69" s="75"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="100"/>
+      <c r="P69" s="100"/>
+      <c r="Q69" s="102"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="96"/>
-      <c r="C70" s="97"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="97"/>
-      <c r="F70" s="97"/>
+      <c r="B70" s="120"/>
+      <c r="C70" s="121"/>
+      <c r="D70" s="121"/>
+      <c r="E70" s="121"/>
+      <c r="F70" s="121"/>
       <c r="G70" s="45"/>
       <c r="H70" s="47"/>
       <c r="I70" s="43"/>
       <c r="J70" s="43"/>
-      <c r="K70" s="127"/>
-      <c r="L70" s="127"/>
-      <c r="M70" s="127"/>
-      <c r="N70" s="127"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="122"/>
+      <c r="N70" s="122"/>
       <c r="O70" s="44"/>
       <c r="P70" s="45"/>
       <c r="Q70" s="39"/>
@@ -3613,12 +3578,12 @@
       <c r="C72" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="98"/>
-      <c r="E72" s="98"/>
-      <c r="F72" s="99" t="s">
+      <c r="D72" s="123"/>
+      <c r="E72" s="123"/>
+      <c r="F72" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="G72" s="99"/>
+      <c r="G72" s="107"/>
       <c r="H72" s="3" t="s">
         <v>35</v>
       </c>
@@ -3628,12 +3593,12 @@
       <c r="L72" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="98"/>
-      <c r="N72" s="98"/>
-      <c r="O72" s="99" t="s">
+      <c r="M72" s="123"/>
+      <c r="N72" s="123"/>
+      <c r="O72" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="P72" s="99"/>
+      <c r="P72" s="107"/>
       <c r="Q72" s="3" t="s">
         <v>35</v>
       </c>
@@ -3673,11 +3638,11 @@
       <c r="C74" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="90">
+      <c r="D74" s="118">
         <f ca="1">TODAY()</f>
-        <v>43517</v>
-      </c>
-      <c r="E74" s="91"/>
+        <v>43523</v>
+      </c>
+      <c r="E74" s="119"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="9"/>
@@ -3687,11 +3652,11 @@
       <c r="L74" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M74" s="90">
+      <c r="M74" s="118">
         <f ca="1">TODAY()</f>
-        <v>43517</v>
-      </c>
-      <c r="N74" s="91"/>
+        <v>43523</v>
+      </c>
+      <c r="N74" s="119"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="9"/>
@@ -3924,7 +3889,7 @@
     </row>
     <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="I101" s="95"/>
+      <c r="I101" s="117"/>
       <c r="J101" s="43"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -3932,7 +3897,7 @@
     </row>
     <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="I102" s="95"/>
+      <c r="I102" s="117"/>
       <c r="J102" s="43"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -4460,102 +4425,134 @@
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q56:Q57"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="K10:L10"/>
@@ -4580,134 +4577,102 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K58:L58"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4725,7 +4690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4739,7 +4704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/static/xlsx/2 - копия.xlsx
+++ b/static/xlsx/2 - копия.xlsx
@@ -627,81 +627,6 @@
       <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -710,77 +635,152 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -820,7 +820,7 @@
         <xdr:cNvPr id="1104" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
         <xdr:cNvPr id="1105" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -924,7 +924,7 @@
         <xdr:cNvPr id="1106" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -976,7 +976,7 @@
         <xdr:cNvPr id="1107" name="Изображение 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,7 +1028,7 @@
         <xdr:cNvPr id="1108" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,7 +1080,7 @@
         <xdr:cNvPr id="1109" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,7 +1132,7 @@
         <xdr:cNvPr id="1110" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1184,7 @@
         <xdr:cNvPr id="1111" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
   <dimension ref="A1:T187"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1552,13 +1552,13 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="88" t="s">
+      <c r="N1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="79"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="116"/>
       <c r="S1" s="6"/>
       <c r="T1" s="7"/>
     </row>
@@ -1587,30 +1587,30 @@
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="89" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="89" t="str">
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="119" t="str">
         <f>REPT(F3,1)</f>
         <v>130319 -               USA 04/05</v>
       </c>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
       <c r="R3" s="10" t="str">
         <f>REPT(I3,1)</f>
         <v/>
@@ -1621,25 +1621,25 @@
     <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="87" t="str">
+      <c r="L4" s="117" t="str">
         <f>REPT(C4,1)</f>
         <v>о приеме группы иностранных туристов</v>
       </c>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="12"/>
       <c r="S4" s="9"/>
@@ -1669,10 +1669,10 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="90"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
       <c r="F6" s="58"/>
@@ -1680,11 +1680,11 @@
       <c r="H6" s="59"/>
       <c r="I6" s="60"/>
       <c r="J6" s="61"/>
-      <c r="K6" s="91" t="str">
+      <c r="K6" s="121" t="str">
         <f>REPT(B6,1)</f>
         <v xml:space="preserve">визовое приглашение № </v>
       </c>
-      <c r="L6" s="91"/>
+      <c r="L6" s="121"/>
       <c r="M6" s="66">
         <f>D6</f>
         <v>0</v>
@@ -1720,29 +1720,29 @@
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="80" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="80" t="str">
+      <c r="L8" s="78"/>
+      <c r="M8" s="110" t="str">
         <f>REPT(D8,1)</f>
         <v>ОДНОКРАТНАЯ</v>
       </c>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="9"/>
@@ -1773,29 +1773,29 @@
     </row>
     <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="80" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="80" t="str">
+      <c r="L10" s="78"/>
+      <c r="M10" s="110" t="str">
         <f>REPT(D10,1)</f>
         <v>США</v>
       </c>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="9"/>
@@ -1829,36 +1829,36 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="96"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="96"/>
+      <c r="G12" s="114"/>
       <c r="H12" s="15"/>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="80" t="str">
+      <c r="L12" s="110" t="str">
         <f>REPT(C12,1)</f>
         <v>04/05/2019</v>
       </c>
-      <c r="M12" s="80"/>
+      <c r="M12" s="110"/>
       <c r="N12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="80" t="str">
+      <c r="O12" s="110" t="str">
         <f>REPT(F12,1)</f>
         <v>16/05/2019</v>
       </c>
-      <c r="P12" s="80"/>
+      <c r="P12" s="110"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1888,14 +1888,14 @@
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="78" t="s">
+      <c r="C14" s="116"/>
+      <c r="D14" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="79"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="16" t="s">
         <v>16</v>
       </c>
@@ -1907,14 +1907,14 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="78" t="s">
+      <c r="K14" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="78" t="s">
+      <c r="L14" s="116"/>
+      <c r="M14" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="79"/>
+      <c r="N14" s="116"/>
       <c r="O14" s="16" t="s">
         <v>16</v>
       </c>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1943,10 +1943,10 @@
       <c r="H15" s="17"/>
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="77"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="123"/>
       <c r="O15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1960,19 +1960,19 @@
     </row>
     <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="86"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="127"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -1982,67 +1982,67 @@
     </row>
     <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="83" t="s">
+      <c r="K17" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="21" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="94"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="55" t="s">
         <v>39</v>
       </c>
@@ -2087,10 +2087,10 @@
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="94" t="s">
+      <c r="K21" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="94"/>
+      <c r="L21" s="112"/>
       <c r="M21" s="55" t="s">
         <v>39</v>
       </c>
@@ -2126,31 +2126,31 @@
     </row>
     <row r="23" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="92" t="s">
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="81" t="s">
+      <c r="K23" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="92" t="str">
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="77" t="str">
         <f>REPT(F23,1)</f>
         <v>Санкт-Петербург, Москва</v>
       </c>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="7"/>
@@ -2179,56 +2179,56 @@
     </row>
     <row r="25" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="93" t="s">
+      <c r="C25" s="113"/>
+      <c r="D25" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="95" t="s">
+      <c r="K25" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="95"/>
-      <c r="M25" s="93" t="str">
+      <c r="L25" s="113"/>
+      <c r="M25" s="76" t="str">
         <f>REPT(D25,1)</f>
         <v>на борту теплохода "ХЕЛЬГИ" (Viking Helgi)</v>
       </c>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="81" t="s">
+      <c r="K26" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
@@ -2236,26 +2236,26 @@
     </row>
     <row r="27" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="92" t="str">
+      <c r="K27" s="77" t="str">
         <f>REPT(B27,1)</f>
         <v>Туристическая компания "МИР", 190000, Россия,</v>
       </c>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
@@ -2263,26 +2263,26 @@
     </row>
     <row r="28" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="92" t="str">
+      <c r="K28" s="77" t="str">
         <f>REPT(B28,1)</f>
         <v>Санкт-Петербург, улица Большая Морская 31</v>
       </c>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
@@ -2342,166 +2342,166 @@
     </row>
     <row r="31" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="125" t="s">
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
       <c r="I31" s="9"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="81" t="s">
+      <c r="K31" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="125" t="str">
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="79" t="str">
         <f>REPT(E31,1)</f>
         <v>Вышеуказанному туристу</v>
       </c>
-      <c r="O31" s="125"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="125"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
       <c r="I32" s="9"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="92" t="str">
+      <c r="K32" s="77" t="str">
         <f>REPT(B32,1)</f>
         <v>предоставляется  размещение и питание  на борту теплохода</v>
       </c>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
       <c r="I33" s="9"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="92" t="str">
+      <c r="K33" s="77" t="str">
         <f>REPT(B33,1)</f>
         <v xml:space="preserve">"ХЕЛЬГИ", трансферы и экскурсионное обслуживание в городе  </v>
       </c>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="9"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="92" t="str">
+      <c r="K34" s="77" t="str">
         <f>REPT(B34,1)</f>
         <v>Москва, Санкт-Петербург</v>
       </c>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="9"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="92" t="str">
+      <c r="K35" s="77" t="str">
         <f>REPT(B35,1)</f>
         <v>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ</v>
       </c>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="9"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="92" t="str">
+      <c r="K36" s="77" t="str">
         <f>REPT(B36,1)</f>
         <v>Ответственное лицо:</v>
       </c>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="7"/>
@@ -2560,12 +2560,12 @@
       <c r="C39" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="81" t="s">
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="81"/>
+      <c r="G39" s="78"/>
       <c r="H39" s="7" t="s">
         <v>33</v>
       </c>
@@ -2575,13 +2575,13 @@
       <c r="L39" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="126"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="127" t="str">
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="81" t="str">
         <f>REPT(F39,1)</f>
         <v>Васив Д.М.</v>
       </c>
-      <c r="P39" s="127"/>
+      <c r="P39" s="81"/>
       <c r="Q39" s="7" t="s">
         <v>33</v>
       </c>
@@ -2621,11 +2621,11 @@
       <c r="C41" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="118">
+      <c r="D41" s="86">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E41" s="119"/>
+      <c r="E41" s="87"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2635,11 +2635,11 @@
       <c r="L41" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M41" s="118">
+      <c r="M41" s="86">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N41" s="119"/>
+      <c r="N41" s="87"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -2735,10 +2735,10 @@
       <c r="M45" s="30"/>
       <c r="N45" s="30"/>
       <c r="O45" s="30"/>
-      <c r="P45" s="105" t="s">
+      <c r="P45" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="Q45" s="106"/>
+      <c r="Q45" s="98"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2759,56 +2759,56 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="107" t="s">
+      <c r="P46" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" s="108"/>
+      <c r="Q46" s="99"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="109" t="s">
+      <c r="B47" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="124" t="str">
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="90" t="str">
         <f>REPT(F3,1)</f>
         <v>130319 -               USA 04/05</v>
       </c>
-      <c r="H47" s="124"/>
+      <c r="H47" s="90"/>
       <c r="I47" s="24"/>
       <c r="J47" s="23"/>
-      <c r="K47" s="109" t="s">
+      <c r="K47" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="110"/>
-      <c r="P47" s="111" t="str">
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="100" t="str">
         <f>REPT(O3,1)</f>
         <v>130319 -               USA 04/05</v>
       </c>
-      <c r="Q47" s="112"/>
+      <c r="Q47" s="101"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="98"/>
-      <c r="D48" s="103" t="s">
+      <c r="C48" s="69"/>
+      <c r="D48" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="104"/>
+      <c r="E48" s="83"/>
       <c r="F48" s="32" t="s">
         <v>16</v>
       </c>
@@ -2820,14 +2820,14 @@
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="23"/>
-      <c r="K48" s="97" t="s">
+      <c r="K48" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="98"/>
-      <c r="M48" s="103" t="s">
+      <c r="L48" s="69"/>
+      <c r="M48" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="104"/>
+      <c r="N48" s="83"/>
       <c r="O48" s="32" t="s">
         <v>16</v>
       </c>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="98"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="34" t="s">
         <v>19</v>
       </c>
@@ -2856,10 +2856,10 @@
       <c r="H49" s="37"/>
       <c r="I49" s="24"/>
       <c r="J49" s="23"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="97"/>
-      <c r="N49" s="98"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="69"/>
       <c r="O49" s="34" t="s">
         <v>19</v>
       </c>
@@ -2873,36 +2873,36 @@
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="99" t="s">
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="99"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="113"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="74"/>
       <c r="J50" s="38"/>
-      <c r="K50" s="70" t="str">
+      <c r="K50" s="104" t="str">
         <f>REPT(B50,1)</f>
         <v/>
       </c>
-      <c r="L50" s="74"/>
-      <c r="M50" s="70" t="str">
+      <c r="L50" s="109"/>
+      <c r="M50" s="104" t="str">
         <f>REPT(D50,1)</f>
         <v/>
       </c>
-      <c r="N50" s="71"/>
-      <c r="O50" s="99" t="str">
+      <c r="N50" s="105"/>
+      <c r="O50" s="70" t="str">
         <f t="shared" ref="O50:O52" si="0">REPT(F50,1)</f>
         <v>07/03/1977</v>
       </c>
-      <c r="P50" s="99" t="str">
+      <c r="P50" s="70" t="str">
         <f>REPT(G50,1)</f>
         <v/>
       </c>
-      <c r="Q50" s="101" t="str">
+      <c r="Q50" s="84" t="str">
         <f>REPT(H50,1)</f>
         <v/>
       </c>
@@ -2912,62 +2912,62 @@
     </row>
     <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="114"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="75"/>
       <c r="J51" s="38"/>
-      <c r="K51" s="72" t="str">
+      <c r="K51" s="102" t="str">
         <f t="shared" ref="K51:K68" si="1">REPT(B51,1)</f>
         <v/>
       </c>
-      <c r="L51" s="73"/>
-      <c r="M51" s="68" t="str">
+      <c r="L51" s="108"/>
+      <c r="M51" s="106" t="str">
         <f t="shared" ref="M51:M69" si="2">REPT(D51,1)</f>
         <v/>
       </c>
-      <c r="N51" s="69"/>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="102"/>
+      <c r="N51" s="107"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="85"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="113"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="74"/>
       <c r="J52" s="38"/>
-      <c r="K52" s="70" t="str">
+      <c r="K52" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L52" s="71"/>
-      <c r="M52" s="70" t="str">
+      <c r="L52" s="105"/>
+      <c r="M52" s="104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N52" s="71"/>
-      <c r="O52" s="99" t="str">
+      <c r="N52" s="105"/>
+      <c r="O52" s="70" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P52" s="99" t="str">
+      <c r="P52" s="70" t="str">
         <f t="shared" ref="P52" si="3">REPT(G52,1)</f>
         <v/>
       </c>
-      <c r="Q52" s="101" t="str">
+      <c r="Q52" s="84" t="str">
         <f t="shared" ref="Q52" si="4">REPT(H52,1)</f>
         <v/>
       </c>
@@ -2977,62 +2977,62 @@
     </row>
     <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="114"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="75"/>
       <c r="J53" s="38"/>
-      <c r="K53" s="68" t="str">
+      <c r="K53" s="106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L53" s="69"/>
-      <c r="M53" s="68" t="str">
+      <c r="L53" s="107"/>
+      <c r="M53" s="106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N53" s="69"/>
-      <c r="O53" s="100"/>
-      <c r="P53" s="100"/>
-      <c r="Q53" s="102"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="85"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="113"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="74"/>
       <c r="J54" s="38"/>
-      <c r="K54" s="70" t="str">
+      <c r="K54" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L54" s="71"/>
-      <c r="M54" s="70" t="str">
+      <c r="L54" s="105"/>
+      <c r="M54" s="104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N54" s="71"/>
-      <c r="O54" s="99" t="str">
+      <c r="N54" s="105"/>
+      <c r="O54" s="70" t="str">
         <f t="shared" ref="O54" si="5">REPT(F54,1)</f>
         <v/>
       </c>
-      <c r="P54" s="99" t="str">
+      <c r="P54" s="70" t="str">
         <f t="shared" ref="P54" si="6">REPT(G54,1)</f>
         <v/>
       </c>
-      <c r="Q54" s="101" t="str">
+      <c r="Q54" s="84" t="str">
         <f t="shared" ref="Q54" si="7">REPT(H54,1)</f>
         <v/>
       </c>
@@ -3042,62 +3042,62 @@
     </row>
     <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="114"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="75"/>
       <c r="J55" s="38"/>
-      <c r="K55" s="68" t="str">
+      <c r="K55" s="106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L55" s="69"/>
-      <c r="M55" s="72" t="str">
+      <c r="L55" s="107"/>
+      <c r="M55" s="102" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N55" s="75"/>
-      <c r="O55" s="100"/>
-      <c r="P55" s="100"/>
-      <c r="Q55" s="102"/>
+      <c r="N55" s="103"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="85"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="113"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="74"/>
       <c r="J56" s="38"/>
-      <c r="K56" s="70" t="str">
+      <c r="K56" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L56" s="74"/>
-      <c r="M56" s="70" t="str">
+      <c r="L56" s="109"/>
+      <c r="M56" s="104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N56" s="71"/>
-      <c r="O56" s="99" t="str">
+      <c r="N56" s="105"/>
+      <c r="O56" s="70" t="str">
         <f t="shared" ref="O56" si="8">REPT(F56,1)</f>
         <v/>
       </c>
-      <c r="P56" s="99" t="str">
+      <c r="P56" s="70" t="str">
         <f t="shared" ref="P56" si="9">REPT(G56,1)</f>
         <v/>
       </c>
-      <c r="Q56" s="101" t="str">
+      <c r="Q56" s="84" t="str">
         <f t="shared" ref="Q56" si="10">REPT(H56,1)</f>
         <v/>
       </c>
@@ -3107,28 +3107,28 @@
     </row>
     <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="114"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="75"/>
       <c r="J57" s="38"/>
-      <c r="K57" s="72" t="str">
+      <c r="K57" s="102" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L57" s="73"/>
-      <c r="M57" s="68" t="str">
+      <c r="L57" s="108"/>
+      <c r="M57" s="106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N57" s="69"/>
-      <c r="O57" s="100"/>
-      <c r="P57" s="100"/>
-      <c r="Q57" s="102"/>
+      <c r="N57" s="107"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="85"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -3137,34 +3137,34 @@
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="113"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="74"/>
       <c r="J58" s="38"/>
-      <c r="K58" s="70" t="str">
+      <c r="K58" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L58" s="71"/>
-      <c r="M58" s="70" t="str">
+      <c r="L58" s="105"/>
+      <c r="M58" s="104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N58" s="71"/>
-      <c r="O58" s="99" t="str">
+      <c r="N58" s="105"/>
+      <c r="O58" s="70" t="str">
         <f t="shared" ref="O58" si="11">REPT(F58,1)</f>
         <v/>
       </c>
-      <c r="P58" s="99" t="str">
+      <c r="P58" s="70" t="str">
         <f t="shared" ref="P58" si="12">REPT(G58,1)</f>
         <v/>
       </c>
-      <c r="Q58" s="101" t="str">
+      <c r="Q58" s="84" t="str">
         <f t="shared" ref="Q58" si="13">REPT(H58,1)</f>
         <v/>
       </c>
@@ -3176,62 +3176,62 @@
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="114"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="75"/>
       <c r="J59" s="38"/>
-      <c r="K59" s="68" t="str">
+      <c r="K59" s="106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L59" s="69"/>
-      <c r="M59" s="68" t="str">
+      <c r="L59" s="107"/>
+      <c r="M59" s="106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N59" s="69"/>
-      <c r="O59" s="100"/>
-      <c r="P59" s="100"/>
-      <c r="Q59" s="102"/>
+      <c r="N59" s="107"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="85"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="113"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="74"/>
       <c r="J60" s="38"/>
-      <c r="K60" s="70" t="str">
+      <c r="K60" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L60" s="71"/>
-      <c r="M60" s="70" t="str">
+      <c r="L60" s="105"/>
+      <c r="M60" s="104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N60" s="71"/>
-      <c r="O60" s="99" t="str">
+      <c r="N60" s="105"/>
+      <c r="O60" s="70" t="str">
         <f t="shared" ref="O60" si="14">REPT(F60,1)</f>
         <v/>
       </c>
-      <c r="P60" s="99" t="str">
+      <c r="P60" s="70" t="str">
         <f t="shared" ref="P60" si="15">REPT(G60,1)</f>
         <v/>
       </c>
-      <c r="Q60" s="101" t="str">
+      <c r="Q60" s="84" t="str">
         <f t="shared" ref="Q60" si="16">REPT(H60,1)</f>
         <v/>
       </c>
@@ -3241,62 +3241,62 @@
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="100"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="114"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="75"/>
       <c r="J61" s="38"/>
-      <c r="K61" s="68" t="str">
+      <c r="K61" s="106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L61" s="69"/>
-      <c r="M61" s="68" t="str">
+      <c r="L61" s="107"/>
+      <c r="M61" s="106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N61" s="69"/>
-      <c r="O61" s="100"/>
-      <c r="P61" s="100"/>
-      <c r="Q61" s="102"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="85"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="115"/>
-      <c r="I62" s="113"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="74"/>
       <c r="J62" s="38"/>
-      <c r="K62" s="70" t="str">
+      <c r="K62" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L62" s="71"/>
-      <c r="M62" s="70" t="str">
+      <c r="L62" s="105"/>
+      <c r="M62" s="104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N62" s="71"/>
-      <c r="O62" s="99" t="str">
+      <c r="N62" s="105"/>
+      <c r="O62" s="70" t="str">
         <f t="shared" ref="O62" si="17">REPT(F62,1)</f>
         <v/>
       </c>
-      <c r="P62" s="99" t="str">
+      <c r="P62" s="70" t="str">
         <f t="shared" ref="P62" si="18">REPT(G62,1)</f>
         <v/>
       </c>
-      <c r="Q62" s="101" t="str">
+      <c r="Q62" s="84" t="str">
         <f t="shared" ref="Q62" si="19">REPT(H62,1)</f>
         <v/>
       </c>
@@ -3306,62 +3306,62 @@
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="114"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="75"/>
       <c r="J63" s="38"/>
-      <c r="K63" s="72" t="str">
+      <c r="K63" s="102" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L63" s="75"/>
-      <c r="M63" s="72" t="str">
+      <c r="L63" s="103"/>
+      <c r="M63" s="102" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N63" s="75"/>
-      <c r="O63" s="100"/>
-      <c r="P63" s="100"/>
-      <c r="Q63" s="102"/>
+      <c r="N63" s="103"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="85"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="115"/>
-      <c r="I64" s="113"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="74"/>
       <c r="J64" s="38"/>
-      <c r="K64" s="70" t="str">
+      <c r="K64" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L64" s="71"/>
-      <c r="M64" s="70" t="str">
+      <c r="L64" s="105"/>
+      <c r="M64" s="104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N64" s="71"/>
-      <c r="O64" s="99" t="str">
+      <c r="N64" s="105"/>
+      <c r="O64" s="70" t="str">
         <f t="shared" ref="O64" si="20">REPT(F64,1)</f>
         <v/>
       </c>
-      <c r="P64" s="99" t="str">
+      <c r="P64" s="70" t="str">
         <f t="shared" ref="P64" si="21">REPT(G64,1)</f>
         <v/>
       </c>
-      <c r="Q64" s="101" t="str">
+      <c r="Q64" s="84" t="str">
         <f t="shared" ref="Q64" si="22">REPT(H64,1)</f>
         <v/>
       </c>
@@ -3371,28 +3371,28 @@
     </row>
     <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="100"/>
-      <c r="G65" s="100"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="114"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="75"/>
       <c r="J65" s="38"/>
-      <c r="K65" s="68" t="str">
+      <c r="K65" s="106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L65" s="69"/>
-      <c r="M65" s="68" t="str">
+      <c r="L65" s="107"/>
+      <c r="M65" s="106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N65" s="69"/>
-      <c r="O65" s="100"/>
-      <c r="P65" s="100"/>
-      <c r="Q65" s="102"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="85"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -3401,34 +3401,34 @@
       <c r="A66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="70"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="115"/>
-      <c r="I66" s="113"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="74"/>
       <c r="J66" s="38"/>
-      <c r="K66" s="70" t="str">
+      <c r="K66" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L66" s="71"/>
-      <c r="M66" s="70" t="str">
+      <c r="L66" s="105"/>
+      <c r="M66" s="104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N66" s="71"/>
-      <c r="O66" s="99" t="str">
+      <c r="N66" s="105"/>
+      <c r="O66" s="70" t="str">
         <f t="shared" ref="O66" si="23">REPT(F66,1)</f>
         <v/>
       </c>
-      <c r="P66" s="99" t="str">
+      <c r="P66" s="70" t="str">
         <f t="shared" ref="P66" si="24">REPT(G66,1)</f>
         <v/>
       </c>
-      <c r="Q66" s="101" t="str">
+      <c r="Q66" s="84" t="str">
         <f t="shared" ref="Q66" si="25">REPT(H66,1)</f>
         <v/>
       </c>
@@ -3440,62 +3440,62 @@
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="68"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="100"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="116"/>
-      <c r="I67" s="114"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="75"/>
       <c r="J67" s="38"/>
-      <c r="K67" s="68" t="str">
+      <c r="K67" s="106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L67" s="69"/>
-      <c r="M67" s="68" t="str">
+      <c r="L67" s="107"/>
+      <c r="M67" s="106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N67" s="69"/>
-      <c r="O67" s="100"/>
-      <c r="P67" s="100"/>
-      <c r="Q67" s="102"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="85"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="113"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="74"/>
       <c r="J68" s="38"/>
-      <c r="K68" s="70" t="str">
+      <c r="K68" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="71"/>
-      <c r="M68" s="70" t="str">
+      <c r="L68" s="105"/>
+      <c r="M68" s="104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N68" s="71"/>
-      <c r="O68" s="99" t="str">
+      <c r="N68" s="105"/>
+      <c r="O68" s="70" t="str">
         <f t="shared" ref="O68" si="26">REPT(F68,1)</f>
         <v/>
       </c>
-      <c r="P68" s="99" t="str">
+      <c r="P68" s="70" t="str">
         <f t="shared" ref="P68" si="27">REPT(G68,1)</f>
         <v/>
       </c>
-      <c r="Q68" s="101" t="str">
+      <c r="Q68" s="84" t="str">
         <f t="shared" ref="Q68" si="28">REPT(H68,1)</f>
         <v/>
       </c>
@@ -3505,44 +3505,44 @@
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="100"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="116"/>
-      <c r="I69" s="114"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="75"/>
       <c r="J69" s="38"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="68" t="str">
+      <c r="K69" s="106"/>
+      <c r="L69" s="107"/>
+      <c r="M69" s="106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N69" s="69"/>
-      <c r="O69" s="100"/>
-      <c r="P69" s="100"/>
-      <c r="Q69" s="102"/>
+      <c r="N69" s="107"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="85"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="120"/>
-      <c r="C70" s="121"/>
-      <c r="D70" s="121"/>
-      <c r="E70" s="121"/>
-      <c r="F70" s="121"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
       <c r="G70" s="45"/>
       <c r="H70" s="47"/>
       <c r="I70" s="43"/>
       <c r="J70" s="43"/>
-      <c r="K70" s="122"/>
-      <c r="L70" s="122"/>
-      <c r="M70" s="122"/>
-      <c r="N70" s="122"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="94"/>
+      <c r="M70" s="94"/>
+      <c r="N70" s="94"/>
       <c r="O70" s="44"/>
       <c r="P70" s="45"/>
       <c r="Q70" s="39"/>
@@ -3578,12 +3578,12 @@
       <c r="C72" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="107" t="s">
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="G72" s="107"/>
+      <c r="G72" s="96"/>
       <c r="H72" s="3" t="s">
         <v>35</v>
       </c>
@@ -3593,12 +3593,12 @@
       <c r="L72" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="123"/>
-      <c r="N72" s="123"/>
-      <c r="O72" s="107" t="s">
+      <c r="M72" s="95"/>
+      <c r="N72" s="95"/>
+      <c r="O72" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="P72" s="107"/>
+      <c r="P72" s="96"/>
       <c r="Q72" s="3" t="s">
         <v>35</v>
       </c>
@@ -3638,11 +3638,11 @@
       <c r="C74" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="118">
+      <c r="D74" s="86">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="E74" s="119"/>
+      <c r="E74" s="87"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="9"/>
@@ -3652,11 +3652,11 @@
       <c r="L74" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M74" s="118">
+      <c r="M74" s="86">
         <f ca="1">TODAY()</f>
         <v>43523</v>
       </c>
-      <c r="N74" s="119"/>
+      <c r="N74" s="87"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="9"/>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="I101" s="117"/>
+      <c r="I101" s="91"/>
       <c r="J101" s="43"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="I102" s="117"/>
+      <c r="I102" s="91"/>
       <c r="J102" s="43"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -4425,42 +4425,182 @@
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K17:Q18"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="I64:I65"/>
     <mergeCell ref="F64:F65"/>
     <mergeCell ref="G64:G65"/>
@@ -4485,127 +4625,45 @@
     <mergeCell ref="I62:I63"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="G60:G61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Q52:Q53"/>
     <mergeCell ref="P45:Q45"/>
     <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
     <mergeCell ref="D49:E49"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K17:Q18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
@@ -4615,64 +4673,6 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K58:L58"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
